--- a/Raw Data/DENU_2019_phenology.xlsx
+++ b/Raw Data/DENU_2019_phenology.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCC computer transfer July 2024\ROA climate project\files for GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTREB\LTREB_Phenology_Demography\Pheno_Demo\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE92ED9-A196-4B81-8D2C-B517C3F156B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B134AD7-B09E-4018-B1AF-78C7ED511BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -600,33 +612,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -911,27 +920,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q926"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A921" workbookViewId="0">
+      <selection activeCell="A931" sqref="A931"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="7"/>
-    <col min="3" max="3" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="56" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="12.140625" style="7"/>
+    <col min="1" max="1" width="23.26953125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="6"/>
+    <col min="3" max="3" width="19.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="12.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>109</v>
       </c>
@@ -972,7 +981,7 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43644</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43644</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43644</v>
       </c>
@@ -1077,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43644</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43644</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43644</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43644</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43644</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43644</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43644</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43644</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43644</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43644</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43644</v>
       </c>
@@ -1462,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43644</v>
       </c>
@@ -1497,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43644</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43644</v>
       </c>
@@ -1567,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43644</v>
       </c>
@@ -1602,7 +1611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43644</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43644</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43644</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43644</v>
       </c>
@@ -1742,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43644</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43644</v>
       </c>
@@ -1812,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43644</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43644</v>
       </c>
@@ -1882,7 +1891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43644</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43644</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43644</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43644</v>
       </c>
@@ -2022,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43644</v>
       </c>
@@ -2057,7 +2066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43644</v>
       </c>
@@ -2092,7 +2101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43644</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43644</v>
       </c>
@@ -2162,7 +2171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>43644</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>43644</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43644</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>43644</v>
       </c>
@@ -2302,7 +2311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>43644</v>
       </c>
@@ -2337,7 +2346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>43644</v>
       </c>
@@ -2372,7 +2381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43644</v>
       </c>
@@ -2407,7 +2416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>43644</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43644</v>
       </c>
@@ -2477,7 +2486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43644</v>
       </c>
@@ -2512,7 +2521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43644</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43644</v>
       </c>
@@ -2582,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43644</v>
       </c>
@@ -2617,7 +2626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>43644</v>
       </c>
@@ -2652,7 +2661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>43644</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>43644</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>43644</v>
       </c>
@@ -2757,7 +2766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>43644</v>
       </c>
@@ -2792,7 +2801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>43644</v>
       </c>
@@ -2827,7 +2836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>43644</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>43644</v>
       </c>
@@ -2897,7 +2906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>43644</v>
       </c>
@@ -2932,7 +2941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>43644</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>43644</v>
       </c>
@@ -3002,7 +3011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>43644</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>43644</v>
       </c>
@@ -3072,7 +3081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>43644</v>
       </c>
@@ -3107,7 +3116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>43644</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>43644</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>43644</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>43644</v>
       </c>
@@ -3247,7 +3256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>43644</v>
       </c>
@@ -3282,7 +3291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>43644</v>
       </c>
@@ -3317,7 +3326,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>43644</v>
       </c>
@@ -3352,7 +3361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>43644</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>43644</v>
       </c>
@@ -3422,7 +3431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>43644</v>
       </c>
@@ -3457,7 +3466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43644</v>
       </c>
@@ -3492,7 +3501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43644</v>
       </c>
@@ -3527,7 +3536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43644</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43644</v>
       </c>
@@ -3597,7 +3606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43644</v>
       </c>
@@ -3632,7 +3641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43644</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43644</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43644</v>
       </c>
@@ -3737,7 +3746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43644</v>
       </c>
@@ -3772,7 +3781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43644</v>
       </c>
@@ -3807,7 +3816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43644</v>
       </c>
@@ -3842,7 +3851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>43644</v>
       </c>
@@ -3877,7 +3886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>43644</v>
       </c>
@@ -3912,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>43644</v>
       </c>
@@ -3947,7 +3956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>43644</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>43644</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>43644</v>
       </c>
@@ -4052,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>43647</v>
       </c>
@@ -4087,7 +4096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>43647</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>43647</v>
       </c>
@@ -4157,7 +4166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>43647</v>
       </c>
@@ -4192,7 +4201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>43647</v>
       </c>
@@ -4227,7 +4236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>43647</v>
       </c>
@@ -4262,7 +4271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>43647</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>43647</v>
       </c>
@@ -4332,7 +4341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>43647</v>
       </c>
@@ -4367,7 +4376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>43647</v>
       </c>
@@ -4402,7 +4411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>43647</v>
       </c>
@@ -4437,7 +4446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>43647</v>
       </c>
@@ -4472,7 +4481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>43647</v>
       </c>
@@ -4507,7 +4516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>43647</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>43647</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>43647</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>43647</v>
       </c>
@@ -4647,7 +4656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>43647</v>
       </c>
@@ -4682,7 +4691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>43647</v>
       </c>
@@ -4717,7 +4726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>43647</v>
       </c>
@@ -4752,7 +4761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>43647</v>
       </c>
@@ -4787,7 +4796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>43647</v>
       </c>
@@ -4822,7 +4831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>43647</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>43647</v>
       </c>
@@ -4892,7 +4901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>43647</v>
       </c>
@@ -4927,7 +4936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>43647</v>
       </c>
@@ -4962,7 +4971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>43647</v>
       </c>
@@ -4997,7 +5006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>43647</v>
       </c>
@@ -5032,7 +5041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>43647</v>
       </c>
@@ -5067,7 +5076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>43647</v>
       </c>
@@ -5102,7 +5111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>43647</v>
       </c>
@@ -5137,7 +5146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>43647</v>
       </c>
@@ -5172,7 +5181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>43647</v>
       </c>
@@ -5207,7 +5216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>43647</v>
       </c>
@@ -5242,7 +5251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>43647</v>
       </c>
@@ -5277,7 +5286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>43647</v>
       </c>
@@ -5312,7 +5321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>43647</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>43647</v>
       </c>
@@ -5382,7 +5391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>43647</v>
       </c>
@@ -5417,7 +5426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>43647</v>
       </c>
@@ -5452,7 +5461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>43647</v>
       </c>
@@ -5487,7 +5496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>43647</v>
       </c>
@@ -5522,7 +5531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>43647</v>
       </c>
@@ -5557,7 +5566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>43647</v>
       </c>
@@ -5592,7 +5601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>43647</v>
       </c>
@@ -5627,7 +5636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>43647</v>
       </c>
@@ -5662,7 +5671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>43647</v>
       </c>
@@ -5697,7 +5706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>43647</v>
       </c>
@@ -5732,7 +5741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>43647</v>
       </c>
@@ -5767,7 +5776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>43647</v>
       </c>
@@ -5802,7 +5811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>43647</v>
       </c>
@@ -5837,7 +5846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>43647</v>
       </c>
@@ -5872,7 +5881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>43647</v>
       </c>
@@ -5907,7 +5916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>43647</v>
       </c>
@@ -5942,7 +5951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>43647</v>
       </c>
@@ -5977,7 +5986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>43647</v>
       </c>
@@ -6012,7 +6021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>43647</v>
       </c>
@@ -6047,7 +6056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>43647</v>
       </c>
@@ -6082,7 +6091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>43647</v>
       </c>
@@ -6117,7 +6126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>43647</v>
       </c>
@@ -6152,7 +6161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>43647</v>
       </c>
@@ -6187,7 +6196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>43647</v>
       </c>
@@ -6222,7 +6231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>43647</v>
       </c>
@@ -6257,7 +6266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>43647</v>
       </c>
@@ -6292,7 +6301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>43647</v>
       </c>
@@ -6327,7 +6336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>43647</v>
       </c>
@@ -6362,7 +6371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>43647</v>
       </c>
@@ -6397,7 +6406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>43647</v>
       </c>
@@ -6432,7 +6441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>43647</v>
       </c>
@@ -6467,7 +6476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>43647</v>
       </c>
@@ -6502,7 +6511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>43647</v>
       </c>
@@ -6537,7 +6546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>43647</v>
       </c>
@@ -6572,7 +6581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>43647</v>
       </c>
@@ -6607,7 +6616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>43647</v>
       </c>
@@ -6642,7 +6651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>43647</v>
       </c>
@@ -6677,7 +6686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>43647</v>
       </c>
@@ -6712,7 +6721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>43647</v>
       </c>
@@ -6747,7 +6756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>43647</v>
       </c>
@@ -6782,7 +6791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>43647</v>
       </c>
@@ -6817,7 +6826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>43647</v>
       </c>
@@ -6852,7 +6861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>43647</v>
       </c>
@@ -6887,7 +6896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>43647</v>
       </c>
@@ -6922,7 +6931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>43647</v>
       </c>
@@ -6957,7 +6966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>43647</v>
       </c>
@@ -6992,7 +7001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>43647</v>
       </c>
@@ -7027,7 +7036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>43647</v>
       </c>
@@ -7062,7 +7071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>43647</v>
       </c>
@@ -7097,7 +7106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>43647</v>
       </c>
@@ -7132,7 +7141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>43647</v>
       </c>
@@ -7167,7 +7176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>43647</v>
       </c>
@@ -7202,7 +7211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>43647</v>
       </c>
@@ -7237,7 +7246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>43647</v>
       </c>
@@ -7272,7 +7281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>43649</v>
       </c>
@@ -7307,7 +7316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>43649</v>
       </c>
@@ -7342,7 +7351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>43649</v>
       </c>
@@ -7377,7 +7386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>43649</v>
       </c>
@@ -7412,7 +7421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>43649</v>
       </c>
@@ -7447,7 +7456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>43649</v>
       </c>
@@ -7482,7 +7491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>43649</v>
       </c>
@@ -7517,7 +7526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>43649</v>
       </c>
@@ -7552,7 +7561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>43649</v>
       </c>
@@ -7587,7 +7596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>43649</v>
       </c>
@@ -7622,7 +7631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>43649</v>
       </c>
@@ -7657,7 +7666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>43649</v>
       </c>
@@ -7692,7 +7701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>43649</v>
       </c>
@@ -7727,7 +7736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>43649</v>
       </c>
@@ -7762,7 +7771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>43649</v>
       </c>
@@ -7797,7 +7806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>43649</v>
       </c>
@@ -7832,7 +7841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>43649</v>
       </c>
@@ -7867,7 +7876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>43649</v>
       </c>
@@ -7902,7 +7911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>43649</v>
       </c>
@@ -7937,7 +7946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>43649</v>
       </c>
@@ -7972,7 +7981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>43649</v>
       </c>
@@ -8007,7 +8016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>43649</v>
       </c>
@@ -8042,7 +8051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>43649</v>
       </c>
@@ -8077,7 +8086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>43649</v>
       </c>
@@ -8112,7 +8121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>43649</v>
       </c>
@@ -8147,7 +8156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>43649</v>
       </c>
@@ -8182,7 +8191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>43649</v>
       </c>
@@ -8217,7 +8226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>43649</v>
       </c>
@@ -8252,7 +8261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>43649</v>
       </c>
@@ -8287,7 +8296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>43649</v>
       </c>
@@ -8322,7 +8331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>43649</v>
       </c>
@@ -8357,7 +8366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>43649</v>
       </c>
@@ -8392,7 +8401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>43649</v>
       </c>
@@ -8427,7 +8436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>43649</v>
       </c>
@@ -8462,7 +8471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>43649</v>
       </c>
@@ -8497,7 +8506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>43649</v>
       </c>
@@ -8532,7 +8541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>43649</v>
       </c>
@@ -8567,7 +8576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>43649</v>
       </c>
@@ -8602,7 +8611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>43649</v>
       </c>
@@ -8637,7 +8646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>43649</v>
       </c>
@@ -8672,7 +8681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>43649</v>
       </c>
@@ -8707,7 +8716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>43649</v>
       </c>
@@ -8742,7 +8751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>43649</v>
       </c>
@@ -8777,7 +8786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>43649</v>
       </c>
@@ -8812,7 +8821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>43649</v>
       </c>
@@ -8847,7 +8856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>43649</v>
       </c>
@@ -8882,7 +8891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>43649</v>
       </c>
@@ -8917,7 +8926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>43649</v>
       </c>
@@ -8952,7 +8961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>43649</v>
       </c>
@@ -8987,7 +8996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>43649</v>
       </c>
@@ -9022,7 +9031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>43649</v>
       </c>
@@ -9057,7 +9066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>43649</v>
       </c>
@@ -9092,7 +9101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>43649</v>
       </c>
@@ -9127,7 +9136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>43649</v>
       </c>
@@ -9162,7 +9171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>43649</v>
       </c>
@@ -9197,7 +9206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>43649</v>
       </c>
@@ -9232,7 +9241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>43649</v>
       </c>
@@ -9267,7 +9276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>43649</v>
       </c>
@@ -9302,7 +9311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>43649</v>
       </c>
@@ -9337,7 +9346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>43649</v>
       </c>
@@ -9372,7 +9381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>43649</v>
       </c>
@@ -9407,7 +9416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>43649</v>
       </c>
@@ -9442,7 +9451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>43649</v>
       </c>
@@ -9477,7 +9486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>43649</v>
       </c>
@@ -9512,7 +9521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>43649</v>
       </c>
@@ -9547,7 +9556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>43649</v>
       </c>
@@ -9582,7 +9591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>43649</v>
       </c>
@@ -9617,7 +9626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>43649</v>
       </c>
@@ -9652,7 +9661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>43649</v>
       </c>
@@ -9687,7 +9696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>43649</v>
       </c>
@@ -9722,7 +9731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>43649</v>
       </c>
@@ -9757,7 +9766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>43649</v>
       </c>
@@ -9792,7 +9801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>43649</v>
       </c>
@@ -9827,7 +9836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>43649</v>
       </c>
@@ -9862,7 +9871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>43649</v>
       </c>
@@ -9897,7 +9906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>43649</v>
       </c>
@@ -9932,7 +9941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>43649</v>
       </c>
@@ -9967,7 +9976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>43649</v>
       </c>
@@ -10002,7 +10011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>43649</v>
       </c>
@@ -10037,7 +10046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>43649</v>
       </c>
@@ -10072,7 +10081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>43649</v>
       </c>
@@ -10107,7 +10116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>43649</v>
       </c>
@@ -10142,7 +10151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>43649</v>
       </c>
@@ -10177,7 +10186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>43649</v>
       </c>
@@ -10212,7 +10221,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>43649</v>
       </c>
@@ -10247,7 +10256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>43649</v>
       </c>
@@ -10282,7 +10291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>43649</v>
       </c>
@@ -10317,7 +10326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>43649</v>
       </c>
@@ -10352,7 +10361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>43649</v>
       </c>
@@ -10387,7 +10396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>43649</v>
       </c>
@@ -10422,7 +10431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>43649</v>
       </c>
@@ -10457,7 +10466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>43649</v>
       </c>
@@ -10492,7 +10501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>43649</v>
       </c>
@@ -10527,7 +10536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>43649</v>
       </c>
@@ -10562,7 +10571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>43651</v>
       </c>
@@ -10597,7 +10606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>43651</v>
       </c>
@@ -10632,7 +10641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>43651</v>
       </c>
@@ -10667,7 +10676,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>43651</v>
       </c>
@@ -10702,7 +10711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>43651</v>
       </c>
@@ -10737,7 +10746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>43651</v>
       </c>
@@ -10772,7 +10781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>43651</v>
       </c>
@@ -10807,7 +10816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>43651</v>
       </c>
@@ -10842,7 +10851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>43651</v>
       </c>
@@ -10877,7 +10886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>43651</v>
       </c>
@@ -10912,7 +10921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>43651</v>
       </c>
@@ -10947,7 +10956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>43651</v>
       </c>
@@ -10982,7 +10991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>43651</v>
       </c>
@@ -11017,7 +11026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>43651</v>
       </c>
@@ -11052,7 +11061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>43651</v>
       </c>
@@ -11087,7 +11096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>43651</v>
       </c>
@@ -11122,7 +11131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>43651</v>
       </c>
@@ -11157,7 +11166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>43651</v>
       </c>
@@ -11192,7 +11201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>43651</v>
       </c>
@@ -11227,7 +11236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>43651</v>
       </c>
@@ -11262,7 +11271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>43651</v>
       </c>
@@ -11297,7 +11306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>43651</v>
       </c>
@@ -11332,7 +11341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>43651</v>
       </c>
@@ -11367,7 +11376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>43651</v>
       </c>
@@ -11402,7 +11411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>43651</v>
       </c>
@@ -11437,7 +11446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>43651</v>
       </c>
@@ -11472,7 +11481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>43651</v>
       </c>
@@ -11507,7 +11516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>43651</v>
       </c>
@@ -11542,7 +11551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>43651</v>
       </c>
@@ -11577,7 +11586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>43651</v>
       </c>
@@ -11612,7 +11621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>43651</v>
       </c>
@@ -11647,7 +11656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>43651</v>
       </c>
@@ -11682,7 +11691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>43651</v>
       </c>
@@ -11717,7 +11726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>43651</v>
       </c>
@@ -11752,7 +11761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>43651</v>
       </c>
@@ -11787,7 +11796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>43651</v>
       </c>
@@ -11822,7 +11831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>43651</v>
       </c>
@@ -11857,7 +11866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>43651</v>
       </c>
@@ -11892,7 +11901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>43651</v>
       </c>
@@ -11927,7 +11936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>43651</v>
       </c>
@@ -11962,7 +11971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>43651</v>
       </c>
@@ -11997,7 +12006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>43651</v>
       </c>
@@ -12032,7 +12041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>43651</v>
       </c>
@@ -12067,7 +12076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>43651</v>
       </c>
@@ -12102,7 +12111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>43651</v>
       </c>
@@ -12137,7 +12146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>43651</v>
       </c>
@@ -12172,7 +12181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>43651</v>
       </c>
@@ -12207,7 +12216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>43651</v>
       </c>
@@ -12242,7 +12251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>43651</v>
       </c>
@@ -12277,7 +12286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>43651</v>
       </c>
@@ -12312,7 +12321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>43651</v>
       </c>
@@ -12347,7 +12356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>43651</v>
       </c>
@@ -12382,7 +12391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>43651</v>
       </c>
@@ -12417,7 +12426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>43651</v>
       </c>
@@ -12452,7 +12461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>43651</v>
       </c>
@@ -12487,7 +12496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>43651</v>
       </c>
@@ -12522,7 +12531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>43651</v>
       </c>
@@ -12557,7 +12566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>43651</v>
       </c>
@@ -12592,7 +12601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>43651</v>
       </c>
@@ -12627,7 +12636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>43651</v>
       </c>
@@ -12662,7 +12671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>43651</v>
       </c>
@@ -12697,7 +12706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>43651</v>
       </c>
@@ -12732,7 +12741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>43651</v>
       </c>
@@ -12767,7 +12776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>43651</v>
       </c>
@@ -12802,7 +12811,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>43651</v>
       </c>
@@ -12837,7 +12846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>43651</v>
       </c>
@@ -12872,7 +12881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>43651</v>
       </c>
@@ -12907,7 +12916,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>43651</v>
       </c>
@@ -12942,7 +12951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>43651</v>
       </c>
@@ -12977,7 +12986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>43651</v>
       </c>
@@ -13012,7 +13021,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>43651</v>
       </c>
@@ -13047,7 +13056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>43651</v>
       </c>
@@ -13082,7 +13091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>43651</v>
       </c>
@@ -13117,7 +13126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>43651</v>
       </c>
@@ -13152,7 +13161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>43651</v>
       </c>
@@ -13187,7 +13196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>43651</v>
       </c>
@@ -13222,7 +13231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>43651</v>
       </c>
@@ -13257,7 +13266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>43651</v>
       </c>
@@ -13292,7 +13301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>43651</v>
       </c>
@@ -13327,7 +13336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>43651</v>
       </c>
@@ -13362,7 +13371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>43651</v>
       </c>
@@ -13397,7 +13406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>43651</v>
       </c>
@@ -13432,7 +13441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>43651</v>
       </c>
@@ -13467,7 +13476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>43651</v>
       </c>
@@ -13502,7 +13511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>43651</v>
       </c>
@@ -13537,7 +13546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>43651</v>
       </c>
@@ -13572,7 +13581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>43651</v>
       </c>
@@ -13607,7 +13616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>43651</v>
       </c>
@@ -13642,7 +13651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>43651</v>
       </c>
@@ -13677,7 +13686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>43651</v>
       </c>
@@ -13712,7 +13721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>43651</v>
       </c>
@@ -13747,7 +13756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>43651</v>
       </c>
@@ -13782,7 +13791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>43651</v>
       </c>
@@ -13817,7 +13826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>43654</v>
       </c>
@@ -13852,7 +13861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>43654</v>
       </c>
@@ -13887,7 +13896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>43654</v>
       </c>
@@ -13922,7 +13931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>43654</v>
       </c>
@@ -13957,7 +13966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>43654</v>
       </c>
@@ -13992,7 +14001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>43654</v>
       </c>
@@ -14028,7 +14037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>43654</v>
       </c>
@@ -14063,7 +14072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>43654</v>
       </c>
@@ -14098,7 +14107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>43654</v>
       </c>
@@ -14133,7 +14142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>43654</v>
       </c>
@@ -14168,7 +14177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>43654</v>
       </c>
@@ -14203,7 +14212,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>43654</v>
       </c>
@@ -14238,7 +14247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>43654</v>
       </c>
@@ -14274,7 +14283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>43654</v>
       </c>
@@ -14309,7 +14318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>43654</v>
       </c>
@@ -14344,7 +14353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>43654</v>
       </c>
@@ -14379,7 +14388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>43654</v>
       </c>
@@ -14414,7 +14423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>43654</v>
       </c>
@@ -14449,7 +14458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>43654</v>
       </c>
@@ -14484,7 +14493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>43654</v>
       </c>
@@ -14519,7 +14528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>43654</v>
       </c>
@@ -14554,7 +14563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>43654</v>
       </c>
@@ -14589,7 +14598,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>43654</v>
       </c>
@@ -14624,7 +14633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>43654</v>
       </c>
@@ -14659,7 +14668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>43654</v>
       </c>
@@ -14694,7 +14703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>43654</v>
       </c>
@@ -14729,7 +14738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>43654</v>
       </c>
@@ -14764,7 +14773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>43654</v>
       </c>
@@ -14799,7 +14808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>43654</v>
       </c>
@@ -14834,7 +14843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>43654</v>
       </c>
@@ -14869,7 +14878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>43654</v>
       </c>
@@ -14904,7 +14913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>43654</v>
       </c>
@@ -14939,7 +14948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>43654</v>
       </c>
@@ -14974,7 +14983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>43654</v>
       </c>
@@ -15009,7 +15018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>43654</v>
       </c>
@@ -15044,7 +15053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>43654</v>
       </c>
@@ -15079,7 +15088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>43654</v>
       </c>
@@ -15114,7 +15123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>43654</v>
       </c>
@@ -15149,7 +15158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>43654</v>
       </c>
@@ -15184,7 +15193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>43654</v>
       </c>
@@ -15219,7 +15228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>43654</v>
       </c>
@@ -15254,7 +15263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>43654</v>
       </c>
@@ -15289,7 +15298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>43654</v>
       </c>
@@ -15324,7 +15333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>43654</v>
       </c>
@@ -15359,7 +15368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>43654</v>
       </c>
@@ -15394,7 +15403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>43654</v>
       </c>
@@ -15429,7 +15438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>43654</v>
       </c>
@@ -15464,7 +15473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>43654</v>
       </c>
@@ -15499,7 +15508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>43654</v>
       </c>
@@ -15534,7 +15543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>43654</v>
       </c>
@@ -15569,7 +15578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>43654</v>
       </c>
@@ -15604,7 +15613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>43654</v>
       </c>
@@ -15639,7 +15648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>43654</v>
       </c>
@@ -15674,7 +15683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>43654</v>
       </c>
@@ -15709,7 +15718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>43654</v>
       </c>
@@ -15744,7 +15753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>43654</v>
       </c>
@@ -15779,7 +15788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>43654</v>
       </c>
@@ -15814,7 +15823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>43654</v>
       </c>
@@ -15850,7 +15859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>43654</v>
       </c>
@@ -15885,7 +15894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>43654</v>
       </c>
@@ -15920,7 +15929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>43654</v>
       </c>
@@ -15955,7 +15964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>43654</v>
       </c>
@@ -15990,7 +15999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>43654</v>
       </c>
@@ -16025,7 +16034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>43654</v>
       </c>
@@ -16060,7 +16069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>43654</v>
       </c>
@@ -16095,7 +16104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>43654</v>
       </c>
@@ -16130,7 +16139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>43654</v>
       </c>
@@ -16166,7 +16175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>43654</v>
       </c>
@@ -16201,7 +16210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>43654</v>
       </c>
@@ -16236,7 +16245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>43654</v>
       </c>
@@ -16271,7 +16280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>43654</v>
       </c>
@@ -16306,7 +16315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>43654</v>
       </c>
@@ -16341,7 +16350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>43654</v>
       </c>
@@ -16376,7 +16385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>43654</v>
       </c>
@@ -16411,7 +16420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>43654</v>
       </c>
@@ -16446,7 +16455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>43654</v>
       </c>
@@ -16481,7 +16490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>43654</v>
       </c>
@@ -16516,7 +16525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>43654</v>
       </c>
@@ -16551,7 +16560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>43654</v>
       </c>
@@ -16586,7 +16595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>43654</v>
       </c>
@@ -16621,7 +16630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>43654</v>
       </c>
@@ -16656,7 +16665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>43654</v>
       </c>
@@ -16691,7 +16700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>43654</v>
       </c>
@@ -16726,7 +16735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>43654</v>
       </c>
@@ -16761,7 +16770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>43654</v>
       </c>
@@ -16796,7 +16805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>43654</v>
       </c>
@@ -16831,7 +16840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>43654</v>
       </c>
@@ -16866,7 +16875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>43654</v>
       </c>
@@ -16901,7 +16910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>43654</v>
       </c>
@@ -16936,7 +16945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>43654</v>
       </c>
@@ -16971,7 +16980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>43654</v>
       </c>
@@ -17006,7 +17015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>43654</v>
       </c>
@@ -17041,7 +17050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>43654</v>
       </c>
@@ -17076,7 +17085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>43656</v>
       </c>
@@ -17111,7 +17120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>43656</v>
       </c>
@@ -17146,7 +17155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>43656</v>
       </c>
@@ -17181,7 +17190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>43656</v>
       </c>
@@ -17216,7 +17225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>43656</v>
       </c>
@@ -17252,7 +17261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>43656</v>
       </c>
@@ -17288,7 +17297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>43656</v>
       </c>
@@ -17324,7 +17333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>43656</v>
       </c>
@@ -17359,7 +17368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>43656</v>
       </c>
@@ -17394,7 +17403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>43656</v>
       </c>
@@ -17429,7 +17438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>43656</v>
       </c>
@@ -17464,7 +17473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>43656</v>
       </c>
@@ -17499,7 +17508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>43656</v>
       </c>
@@ -17535,7 +17544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>43656</v>
       </c>
@@ -17570,7 +17579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>43656</v>
       </c>
@@ -17605,7 +17614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>43656</v>
       </c>
@@ -17640,7 +17649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>43656</v>
       </c>
@@ -17675,7 +17684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>43656</v>
       </c>
@@ -17710,7 +17719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>43656</v>
       </c>
@@ -17745,7 +17754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>43656</v>
       </c>
@@ -17780,7 +17789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>43656</v>
       </c>
@@ -17815,7 +17824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>43656</v>
       </c>
@@ -17851,7 +17860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>43656</v>
       </c>
@@ -17886,7 +17895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>43656</v>
       </c>
@@ -17921,7 +17930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>43656</v>
       </c>
@@ -17956,7 +17965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>43656</v>
       </c>
@@ -17991,7 +18000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>43656</v>
       </c>
@@ -18026,7 +18035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>43656</v>
       </c>
@@ -18061,7 +18070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>43656</v>
       </c>
@@ -18096,7 +18105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>43656</v>
       </c>
@@ -18132,7 +18141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>43656</v>
       </c>
@@ -18167,7 +18176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
         <v>43656</v>
       </c>
@@ -18202,7 +18211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>43656</v>
       </c>
@@ -18237,7 +18246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>43656</v>
       </c>
@@ -18272,7 +18281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>43656</v>
       </c>
@@ -18307,7 +18316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>43656</v>
       </c>
@@ -18342,7 +18351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>43656</v>
       </c>
@@ -18377,7 +18386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>43656</v>
       </c>
@@ -18413,7 +18422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>43656</v>
       </c>
@@ -18448,7 +18457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>43656</v>
       </c>
@@ -18483,7 +18492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>43656</v>
       </c>
@@ -18518,7 +18527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>43656</v>
       </c>
@@ -18553,7 +18562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>43656</v>
       </c>
@@ -18588,7 +18597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>43656</v>
       </c>
@@ -18623,7 +18632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>43656</v>
       </c>
@@ -18658,7 +18667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>43656</v>
       </c>
@@ -18693,7 +18702,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>43656</v>
       </c>
@@ -18729,7 +18738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>43656</v>
       </c>
@@ -18764,7 +18773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>43656</v>
       </c>
@@ -18799,7 +18808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>43656</v>
       </c>
@@ -18834,7 +18843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>43656</v>
       </c>
@@ -18869,7 +18878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <v>43656</v>
       </c>
@@ -18904,7 +18913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>43656</v>
       </c>
@@ -18939,7 +18948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <v>43656</v>
       </c>
@@ -18974,7 +18983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>43656</v>
       </c>
@@ -19010,7 +19019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <v>43656</v>
       </c>
@@ -19046,7 +19055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>43656</v>
       </c>
@@ -19081,7 +19090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <v>43656</v>
       </c>
@@ -19117,7 +19126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>43656</v>
       </c>
@@ -19152,7 +19161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <v>43656</v>
       </c>
@@ -19187,7 +19196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>43656</v>
       </c>
@@ -19222,7 +19231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <v>43656</v>
       </c>
@@ -19257,7 +19266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>43656</v>
       </c>
@@ -19292,7 +19301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="2">
         <v>43656</v>
       </c>
@@ -19328,7 +19337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>43656</v>
       </c>
@@ -19363,7 +19372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>43656</v>
       </c>
@@ -19399,7 +19408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <v>43656</v>
       </c>
@@ -19435,7 +19444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>43656</v>
       </c>
@@ -19471,7 +19480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <v>43656</v>
       </c>
@@ -19506,7 +19515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>43656</v>
       </c>
@@ -19541,7 +19550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <v>43656</v>
       </c>
@@ -19576,7 +19585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>43656</v>
       </c>
@@ -19612,7 +19621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <v>43656</v>
       </c>
@@ -19647,7 +19656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>43656</v>
       </c>
@@ -19682,7 +19691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <v>43656</v>
       </c>
@@ -19717,7 +19726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>43656</v>
       </c>
@@ -19752,7 +19761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <v>43656</v>
       </c>
@@ -19787,7 +19796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>43656</v>
       </c>
@@ -19822,7 +19831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <v>43656</v>
       </c>
@@ -19857,7 +19866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>43656</v>
       </c>
@@ -19892,7 +19901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>43656</v>
       </c>
@@ -19927,7 +19936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <v>43656</v>
       </c>
@@ -19962,7 +19971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>43656</v>
       </c>
@@ -19997,7 +20006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <v>43656</v>
       </c>
@@ -20032,7 +20041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="2">
         <v>43656</v>
       </c>
@@ -20068,7 +20077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="2">
         <v>43656</v>
       </c>
@@ -20103,7 +20112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <v>43656</v>
       </c>
@@ -20138,7 +20147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="2">
         <v>43656</v>
       </c>
@@ -20173,7 +20182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <v>43656</v>
       </c>
@@ -20208,7 +20217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="2">
         <v>43656</v>
       </c>
@@ -20243,7 +20252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <v>43656</v>
       </c>
@@ -20278,7 +20287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="2">
         <v>43656</v>
       </c>
@@ -20313,7 +20322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <v>43656</v>
       </c>
@@ -20348,7 +20357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="2">
         <v>43658</v>
       </c>
@@ -20383,7 +20392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <v>43658</v>
       </c>
@@ -20419,7 +20428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <v>43658</v>
       </c>
@@ -20454,7 +20463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="2">
         <v>43658</v>
       </c>
@@ -20489,7 +20498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="2">
         <v>43658</v>
       </c>
@@ -20525,7 +20534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <v>43658</v>
       </c>
@@ -20561,7 +20570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <v>43658</v>
       </c>
@@ -20597,7 +20606,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="562" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <v>43658</v>
       </c>
@@ -20633,7 +20642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <v>43658</v>
       </c>
@@ -20669,7 +20678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="564" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <v>43658</v>
       </c>
@@ -20704,7 +20713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="565" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <v>43658</v>
       </c>
@@ -20739,7 +20748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="566" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <v>43658</v>
       </c>
@@ -20774,7 +20783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="567" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <v>43658</v>
       </c>
@@ -20810,7 +20819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <v>43658</v>
       </c>
@@ -20845,7 +20854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="569" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <v>43658</v>
       </c>
@@ -20881,7 +20890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="570" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <v>43658</v>
       </c>
@@ -20917,7 +20926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="571" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <v>43658</v>
       </c>
@@ -20952,7 +20961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <v>43658</v>
       </c>
@@ -20987,7 +20996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <v>43658</v>
       </c>
@@ -21022,7 +21031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <v>43658</v>
       </c>
@@ -21057,7 +21066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="575" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <v>43658</v>
       </c>
@@ -21092,7 +21101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A576" s="2">
         <v>43658</v>
       </c>
@@ -21128,7 +21137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <v>43658</v>
       </c>
@@ -21164,7 +21173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A578" s="2">
         <v>43658</v>
       </c>
@@ -21199,7 +21208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A579" s="2">
         <v>43658</v>
       </c>
@@ -21234,7 +21243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <v>43658</v>
       </c>
@@ -21269,7 +21278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A581" s="2">
         <v>43658</v>
       </c>
@@ -21304,7 +21313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <v>43658</v>
       </c>
@@ -21339,7 +21348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A583" s="2">
         <v>43658</v>
       </c>
@@ -21375,7 +21384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <v>43658</v>
       </c>
@@ -21411,7 +21420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A585" s="2">
         <v>43658</v>
       </c>
@@ -21446,7 +21455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <v>43658</v>
       </c>
@@ -21481,7 +21490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <v>43658</v>
       </c>
@@ -21516,7 +21525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="588" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A588" s="2">
         <v>43658</v>
       </c>
@@ -21551,7 +21560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="589" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <v>43658</v>
       </c>
@@ -21587,7 +21596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A590" s="2">
         <v>43658</v>
       </c>
@@ -21622,7 +21631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <v>43658</v>
       </c>
@@ -21658,7 +21667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A592" s="2">
         <v>43658</v>
       </c>
@@ -21694,7 +21703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <v>43658</v>
       </c>
@@ -21730,7 +21739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A594" s="2">
         <v>43658</v>
       </c>
@@ -21765,7 +21774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <v>43658</v>
       </c>
@@ -21801,7 +21810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="596" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A596" s="2">
         <v>43658</v>
       </c>
@@ -21837,7 +21846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <v>43658</v>
       </c>
@@ -21873,7 +21882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A598" s="2">
         <v>43658</v>
       </c>
@@ -21909,7 +21918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A599" s="2">
         <v>43658</v>
       </c>
@@ -21945,7 +21954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A600" s="2">
         <v>43658</v>
       </c>
@@ -21980,7 +21989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A601" s="2">
         <v>43658</v>
       </c>
@@ -22016,7 +22025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A602" s="2">
         <v>43658</v>
       </c>
@@ -22051,7 +22060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A603" s="2">
         <v>43658</v>
       </c>
@@ -22086,7 +22095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A604" s="2">
         <v>43658</v>
       </c>
@@ -22121,7 +22130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A605" s="2">
         <v>43658</v>
       </c>
@@ -22156,7 +22165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A606" s="2">
         <v>43658</v>
       </c>
@@ -22192,7 +22201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A607" s="2">
         <v>43658</v>
       </c>
@@ -22228,7 +22237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="608" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A608" s="2">
         <v>43658</v>
       </c>
@@ -22264,7 +22273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="609" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A609" s="2">
         <v>43658</v>
       </c>
@@ -22300,7 +22309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="610" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A610" s="2">
         <v>43658</v>
       </c>
@@ -22336,7 +22345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A611" s="2">
         <v>43658</v>
       </c>
@@ -22371,7 +22380,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A612" s="2">
         <v>43658</v>
       </c>
@@ -22407,7 +22416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A613" s="2">
         <v>43658</v>
       </c>
@@ -22442,7 +22451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A614" s="2">
         <v>43658</v>
       </c>
@@ -22478,7 +22487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A615" s="2">
         <v>43658</v>
       </c>
@@ -22513,7 +22522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="616" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A616" s="2">
         <v>43658</v>
       </c>
@@ -22549,7 +22558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A617" s="2">
         <v>43658</v>
       </c>
@@ -22585,7 +22594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A618" s="2">
         <v>43658</v>
       </c>
@@ -22621,7 +22630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A619" s="2">
         <v>43658</v>
       </c>
@@ -22656,7 +22665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A620" s="2">
         <v>43658</v>
       </c>
@@ -22692,7 +22701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="621" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A621" s="2">
         <v>43658</v>
       </c>
@@ -22728,7 +22737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="622" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A622" s="2">
         <v>43658</v>
       </c>
@@ -22764,7 +22773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A623" s="2">
         <v>43658</v>
       </c>
@@ -22799,7 +22808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A624" s="2">
         <v>43658</v>
       </c>
@@ -22834,7 +22843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A625" s="2">
         <v>43658</v>
       </c>
@@ -22869,7 +22878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A626" s="2">
         <v>43658</v>
       </c>
@@ -22905,7 +22914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A627" s="2">
         <v>43658</v>
       </c>
@@ -22940,7 +22949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A628" s="2">
         <v>43658</v>
       </c>
@@ -22975,7 +22984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A629" s="2">
         <v>43658</v>
       </c>
@@ -23010,7 +23019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A630" s="2">
         <v>43658</v>
       </c>
@@ -23045,7 +23054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="631" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A631" s="2">
         <v>43658</v>
       </c>
@@ -23080,7 +23089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A632" s="2">
         <v>43658</v>
       </c>
@@ -23116,7 +23125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A633" s="2">
         <v>43658</v>
       </c>
@@ -23152,7 +23161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A634" s="2">
         <v>43658</v>
       </c>
@@ -23187,7 +23196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A635" s="2">
         <v>43658</v>
       </c>
@@ -23222,7 +23231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A636" s="2">
         <v>43658</v>
       </c>
@@ -23257,7 +23266,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A637" s="2">
         <v>43658</v>
       </c>
@@ -23292,7 +23301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A638" s="2">
         <v>43658</v>
       </c>
@@ -23327,7 +23336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="639" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A639" s="2">
         <v>43658</v>
       </c>
@@ -23363,7 +23372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A640" s="2">
         <v>43658</v>
       </c>
@@ -23398,7 +23407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A641" s="2">
         <v>43658</v>
       </c>
@@ -23434,7 +23443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="642" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A642" s="2">
         <v>43658</v>
       </c>
@@ -23470,7 +23479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A643" s="2">
         <v>43658</v>
       </c>
@@ -23506,7 +23515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="644" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A644" s="2">
         <v>43658</v>
       </c>
@@ -23542,7 +23551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="645" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A645" s="2">
         <v>43658</v>
       </c>
@@ -23577,7 +23586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="646" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="2">
         <v>43658</v>
       </c>
@@ -23612,7 +23621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A647" s="2">
         <v>43658</v>
       </c>
@@ -23647,7 +23656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A648" s="2">
         <v>43661</v>
       </c>
@@ -23683,7 +23692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="649" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A649" s="2">
         <v>43661</v>
       </c>
@@ -23719,7 +23728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="650" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A650" s="2">
         <v>43661</v>
       </c>
@@ -23754,7 +23763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="651" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A651" s="2">
         <v>43661</v>
       </c>
@@ -23790,7 +23799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="652" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A652" s="2">
         <v>43661</v>
       </c>
@@ -23826,7 +23835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A653" s="2">
         <v>43661</v>
       </c>
@@ -23862,7 +23871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="654" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A654" s="2">
         <v>43661</v>
       </c>
@@ -23898,7 +23907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="655" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A655" s="2">
         <v>43661</v>
       </c>
@@ -23934,7 +23943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A656" s="2">
         <v>43661</v>
       </c>
@@ -23970,7 +23979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="657" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A657" s="2">
         <v>43661</v>
       </c>
@@ -23980,19 +23989,19 @@
       <c r="C657" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D657" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E657" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F657" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G657" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H657" s="8" t="s">
+      <c r="D657" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E657" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F657" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G657" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H657" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I657" s="1">
@@ -24005,7 +24014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A658" s="2">
         <v>43661</v>
       </c>
@@ -24015,19 +24024,19 @@
       <c r="C658" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D658" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E658" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F658" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G658" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H658" s="8" t="s">
+      <c r="D658" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E658" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F658" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G658" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H658" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I658" s="1" t="s">
@@ -24040,7 +24049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A659" s="2">
         <v>43661</v>
       </c>
@@ -24050,32 +24059,32 @@
       <c r="C659" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D659" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E659" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F659" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G659" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H659" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I659" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J659" s="8" t="s">
+      <c r="D659" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E659" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F659" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G659" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H659" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I659" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J659" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K659" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A660" s="2">
         <v>43661</v>
       </c>
@@ -24111,7 +24120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="661" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A661" s="2">
         <v>43661</v>
       </c>
@@ -24146,7 +24155,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="662" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A662" s="2">
         <v>43661</v>
       </c>
@@ -24182,7 +24191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A663" s="2">
         <v>43661</v>
       </c>
@@ -24218,7 +24227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A664" s="2">
         <v>43661</v>
       </c>
@@ -24254,7 +24263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A665" s="2">
         <v>43661</v>
       </c>
@@ -24290,7 +24299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A666" s="2">
         <v>43661</v>
       </c>
@@ -24326,7 +24335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A667" s="2">
         <v>43661</v>
       </c>
@@ -24361,7 +24370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="668" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A668" s="2">
         <v>43661</v>
       </c>
@@ -24371,32 +24380,32 @@
       <c r="C668" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D668" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E668" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F668" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G668" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H668" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I668" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J668" s="8" t="s">
+      <c r="D668" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E668" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F668" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G668" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H668" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I668" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J668" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K668" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="669" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A669" s="2">
         <v>43661</v>
       </c>
@@ -24432,7 +24441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A670" s="2">
         <v>43661</v>
       </c>
@@ -24468,7 +24477,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="671" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A671" s="2">
         <v>43661</v>
       </c>
@@ -24478,19 +24487,19 @@
       <c r="C671" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D671" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E671" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F671" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G671" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H671" s="8" t="s">
+      <c r="D671" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E671" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F671" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G671" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H671" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I671" s="1">
@@ -24503,7 +24512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A672" s="2">
         <v>43661</v>
       </c>
@@ -24513,19 +24522,19 @@
       <c r="C672" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D672" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E672" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F672" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G672" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H672" s="8" t="s">
+      <c r="D672" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E672" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F672" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G672" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H672" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I672" s="1">
@@ -24538,7 +24547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A673" s="2">
         <v>43661</v>
       </c>
@@ -24548,32 +24557,32 @@
       <c r="C673" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D673" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E673" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F673" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G673" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H673" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I673" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J673" s="8" t="s">
+      <c r="D673" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E673" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F673" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G673" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H673" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I673" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J673" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K673" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="674" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A674" s="2">
         <v>43661</v>
       </c>
@@ -24583,32 +24592,32 @@
       <c r="C674" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D674" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E674" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F674" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G674" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H674" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I674" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J674" s="8" t="s">
+      <c r="D674" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E674" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F674" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G674" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H674" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I674" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J674" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K674" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="675" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A675" s="2">
         <v>43661</v>
       </c>
@@ -24618,19 +24627,19 @@
       <c r="C675" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D675" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E675" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F675" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G675" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H675" s="8" t="s">
+      <c r="D675" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E675" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F675" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G675" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H675" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I675" s="1">
@@ -24643,7 +24652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="676" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A676" s="2">
         <v>43661</v>
       </c>
@@ -24679,7 +24688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="677" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A677" s="2">
         <v>43661</v>
       </c>
@@ -24715,7 +24724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="678" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A678" s="2">
         <v>43661</v>
       </c>
@@ -24751,7 +24760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="679" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A679" s="2">
         <v>43661</v>
       </c>
@@ -24786,7 +24795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="680" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A680" s="2">
         <v>43661</v>
       </c>
@@ -24821,7 +24830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="681" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A681" s="2">
         <v>43661</v>
       </c>
@@ -24856,7 +24865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="682" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A682" s="2">
         <v>43661</v>
       </c>
@@ -24892,7 +24901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A683" s="2">
         <v>43661</v>
       </c>
@@ -24928,7 +24937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="684" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A684" s="2">
         <v>43661</v>
       </c>
@@ -24964,7 +24973,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="685" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A685" s="2">
         <v>43661</v>
       </c>
@@ -25000,7 +25009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="686" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A686" s="2">
         <v>43661</v>
       </c>
@@ -25036,7 +25045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="687" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A687" s="2">
         <v>43661</v>
       </c>
@@ -25072,7 +25081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="688" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A688" s="2">
         <v>43661</v>
       </c>
@@ -25108,7 +25117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="689" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A689" s="2">
         <v>43661</v>
       </c>
@@ -25144,7 +25153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="690" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A690" s="2">
         <v>43661</v>
       </c>
@@ -25180,7 +25189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A691" s="2">
         <v>43661</v>
       </c>
@@ -25216,7 +25225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="692" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A692" s="2">
         <v>43661</v>
       </c>
@@ -25252,7 +25261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="693" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A693" s="2">
         <v>43661</v>
       </c>
@@ -25288,7 +25297,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A694" s="2">
         <v>43661</v>
       </c>
@@ -25324,7 +25333,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="695" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A695" s="2">
         <v>43661</v>
       </c>
@@ -25359,7 +25368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A696" s="2">
         <v>43661</v>
       </c>
@@ -25395,7 +25404,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A697" s="2">
         <v>43661</v>
       </c>
@@ -25431,7 +25440,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A698" s="2">
         <v>43661</v>
       </c>
@@ -25466,7 +25475,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="699" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A699" s="2">
         <v>43661</v>
       </c>
@@ -25502,7 +25511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A700" s="2">
         <v>43661</v>
       </c>
@@ -25538,7 +25547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A701" s="2">
         <v>43661</v>
       </c>
@@ -25573,7 +25582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A702" s="2">
         <v>43661</v>
       </c>
@@ -25609,7 +25618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A703" s="2">
         <v>43661</v>
       </c>
@@ -25645,7 +25654,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="704" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A704" s="2">
         <v>43661</v>
       </c>
@@ -25681,7 +25690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A705" s="2">
         <v>43661</v>
       </c>
@@ -25717,7 +25726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A706" s="2">
         <v>43661</v>
       </c>
@@ -25753,7 +25762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A707" s="2">
         <v>43661</v>
       </c>
@@ -25789,7 +25798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A708" s="2">
         <v>43662</v>
       </c>
@@ -25824,7 +25833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A709" s="2">
         <v>43662</v>
       </c>
@@ -25859,7 +25868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A710" s="2">
         <v>43662</v>
       </c>
@@ -25894,7 +25903,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="711" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A711" s="2">
         <v>43662</v>
       </c>
@@ -25930,7 +25939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A712" s="2">
         <v>43662</v>
       </c>
@@ -25966,7 +25975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A713" s="2">
         <v>43662</v>
       </c>
@@ -26002,7 +26011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A714" s="2">
         <v>43662</v>
       </c>
@@ -26037,7 +26046,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="715" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A715" s="2">
         <v>43662</v>
       </c>
@@ -26073,7 +26082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A716" s="2">
         <v>43662</v>
       </c>
@@ -26109,7 +26118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A717" s="2">
         <v>43662</v>
       </c>
@@ -26145,7 +26154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A718" s="2">
         <v>43662</v>
       </c>
@@ -26181,7 +26190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="719" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A719" s="2">
         <v>43662</v>
       </c>
@@ -26217,7 +26226,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="720" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A720" s="2">
         <v>43662</v>
       </c>
@@ -26253,7 +26262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="721" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A721" s="2">
         <v>43662</v>
       </c>
@@ -26289,7 +26298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="722" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A722" s="2">
         <v>43662</v>
       </c>
@@ -26324,7 +26333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A723" s="2">
         <v>43662</v>
       </c>
@@ -26359,7 +26368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A724" s="2">
         <v>43662</v>
       </c>
@@ -26394,7 +26403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="725" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A725" s="2">
         <v>43662</v>
       </c>
@@ -26430,7 +26439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A726" s="2">
         <v>43662</v>
       </c>
@@ -26465,7 +26474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A727" s="2">
         <v>43662</v>
       </c>
@@ -26500,7 +26509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A728" s="2">
         <v>43662</v>
       </c>
@@ -26536,7 +26545,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A729" s="2">
         <v>43662</v>
       </c>
@@ -26571,7 +26580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="730" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A730" s="2">
         <v>43662</v>
       </c>
@@ -26606,7 +26615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="731" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A731" s="2">
         <v>43662</v>
       </c>
@@ -26642,7 +26651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A732" s="2">
         <v>43662</v>
       </c>
@@ -26677,7 +26686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A733" s="2">
         <v>43662</v>
       </c>
@@ -26712,7 +26721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A734" s="2">
         <v>43662</v>
       </c>
@@ -26747,7 +26756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A735" s="2">
         <v>43662</v>
       </c>
@@ -26783,7 +26792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A736" s="2">
         <v>43662</v>
       </c>
@@ -26819,7 +26828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A737" s="2">
         <v>43662</v>
       </c>
@@ -26854,7 +26863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A738" s="2">
         <v>43662</v>
       </c>
@@ -26890,7 +26899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="739" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A739" s="2">
         <v>43662</v>
       </c>
@@ -26926,7 +26935,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="740" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A740" s="2">
         <v>43662</v>
       </c>
@@ -26962,7 +26971,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="741" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A741" s="2">
         <v>43664</v>
       </c>
@@ -26998,7 +27007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="742" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A742" s="2">
         <v>43664</v>
       </c>
@@ -27034,7 +27043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="743" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A743" s="2">
         <v>43664</v>
       </c>
@@ -27069,7 +27078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A744" s="2">
         <v>43664</v>
       </c>
@@ -27105,7 +27114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A745" s="2">
         <v>43664</v>
       </c>
@@ -27141,7 +27150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="746" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A746" s="2">
         <v>43664</v>
       </c>
@@ -27177,7 +27186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A747" s="2">
         <v>43664</v>
       </c>
@@ -27213,7 +27222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A748" s="2">
         <v>43664</v>
       </c>
@@ -27249,7 +27258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="749" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A749" s="2">
         <v>43664</v>
       </c>
@@ -27285,7 +27294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="750" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A750" s="2">
         <v>43664</v>
       </c>
@@ -27295,32 +27304,32 @@
       <c r="C750" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D750" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E750" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F750" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G750" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H750" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I750" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J750" s="8" t="s">
+      <c r="D750" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E750" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F750" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G750" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H750" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I750" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J750" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K750" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="751" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A751" s="2">
         <v>43664</v>
       </c>
@@ -27330,32 +27339,32 @@
       <c r="C751" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D751" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E751" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F751" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G751" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H751" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I751" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J751" s="8" t="s">
+      <c r="D751" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E751" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F751" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G751" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H751" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I751" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J751" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K751" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A752" s="2">
         <v>43664</v>
       </c>
@@ -27365,32 +27374,32 @@
       <c r="C752" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D752" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E752" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F752" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G752" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H752" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I752" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J752" s="8" t="s">
+      <c r="D752" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E752" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F752" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G752" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H752" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I752" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J752" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K752" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A753" s="2">
         <v>43664</v>
       </c>
@@ -27426,7 +27435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="754" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A754" s="2">
         <v>43664</v>
       </c>
@@ -27461,7 +27470,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="755" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A755" s="2">
         <v>43664</v>
       </c>
@@ -27497,7 +27506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="756" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A756" s="2">
         <v>43664</v>
       </c>
@@ -27533,7 +27542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A757" s="2">
         <v>43664</v>
       </c>
@@ -27569,7 +27578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="758" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A758" s="2">
         <v>43664</v>
       </c>
@@ -27605,7 +27614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A759" s="2">
         <v>43664</v>
       </c>
@@ -27641,7 +27650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="760" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A760" s="2">
         <v>43664</v>
       </c>
@@ -27676,7 +27685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="761" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A761" s="2">
         <v>43664</v>
       </c>
@@ -27686,32 +27695,32 @@
       <c r="C761" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D761" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E761" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F761" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G761" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H761" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I761" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J761" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K761" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="762" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D761" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E761" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F761" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G761" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H761" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I761" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J761" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K761" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A762" s="2">
         <v>43664</v>
       </c>
@@ -27747,7 +27756,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A763" s="2">
         <v>43664</v>
       </c>
@@ -27783,7 +27792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A764" s="2">
         <v>43664</v>
       </c>
@@ -27793,32 +27802,32 @@
       <c r="C764" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D764" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E764" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F764" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G764" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H764" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I764" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J764" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K764" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="765" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D764" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E764" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F764" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G764" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H764" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I764" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J764" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K764" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="765" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A765" s="2">
         <v>43664</v>
       </c>
@@ -27828,32 +27837,32 @@
       <c r="C765" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D765" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E765" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F765" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G765" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H765" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I765" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J765" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K765" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="766" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D765" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E765" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F765" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G765" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H765" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I765" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J765" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K765" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="766" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A766" s="2">
         <v>43664</v>
       </c>
@@ -27863,32 +27872,32 @@
       <c r="C766" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D766" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E766" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F766" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G766" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H766" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I766" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J766" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K766" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="767" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D766" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E766" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F766" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G766" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H766" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I766" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J766" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K766" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A767" s="2">
         <v>43664</v>
       </c>
@@ -27898,32 +27907,32 @@
       <c r="C767" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D767" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E767" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F767" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G767" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H767" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I767" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J767" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K767" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="768" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D767" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E767" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F767" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G767" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H767" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I767" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J767" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K767" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="768" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A768" s="2">
         <v>43664</v>
       </c>
@@ -27933,32 +27942,32 @@
       <c r="C768" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D768" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E768" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F768" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G768" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H768" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I768" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J768" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K768" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="769" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D768" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E768" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F768" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G768" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H768" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I768" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J768" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K768" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="769" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A769" s="2">
         <v>43664</v>
       </c>
@@ -27990,11 +27999,11 @@
       <c r="J769" s="1">
         <v>0</v>
       </c>
-      <c r="K769" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="770" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K769" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A770" s="2">
         <v>43664</v>
       </c>
@@ -28026,11 +28035,11 @@
       <c r="J770" s="1">
         <v>0</v>
       </c>
-      <c r="K770" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="771" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K770" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="771" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A771" s="2">
         <v>43664</v>
       </c>
@@ -28061,11 +28070,11 @@
       <c r="J771" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K771" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="772" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K771" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="772" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A772" s="2">
         <v>43664</v>
       </c>
@@ -28096,11 +28105,11 @@
       <c r="J772" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K772" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="773" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K772" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A773" s="2">
         <v>43664</v>
       </c>
@@ -28131,11 +28140,11 @@
       <c r="J773" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K773" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="774" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K773" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="774" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A774" s="2">
         <v>43664</v>
       </c>
@@ -28166,11 +28175,11 @@
       <c r="J774" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K774" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="775" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K774" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="775" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A775" s="2">
         <v>43664</v>
       </c>
@@ -28206,7 +28215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A776" s="2">
         <v>43664</v>
       </c>
@@ -28242,7 +28251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A777" s="2">
         <v>43664</v>
       </c>
@@ -28278,7 +28287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="778" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A778" s="2">
         <v>43664</v>
       </c>
@@ -28314,7 +28323,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="779" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A779" s="2">
         <v>43664</v>
       </c>
@@ -28350,7 +28359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="780" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A780" s="2">
         <v>43664</v>
       </c>
@@ -28386,7 +28395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="781" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A781" s="2">
         <v>43664</v>
       </c>
@@ -28422,7 +28431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="782" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A782" s="2">
         <v>43664</v>
       </c>
@@ -28458,7 +28467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A783" s="2">
         <v>43664</v>
       </c>
@@ -28494,7 +28503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="784" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A784" s="2">
         <v>43664</v>
       </c>
@@ -28530,7 +28539,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="785" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A785" s="2">
         <v>43664</v>
       </c>
@@ -28566,7 +28575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="786" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A786" s="2">
         <v>43664</v>
       </c>
@@ -28601,7 +28610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A787" s="2">
         <v>43664</v>
       </c>
@@ -28637,7 +28646,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="788" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A788" s="2">
         <v>43664</v>
       </c>
@@ -28672,7 +28681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A789" s="2">
         <v>43664</v>
       </c>
@@ -28707,7 +28716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A790" s="2">
         <v>43664</v>
       </c>
@@ -28743,7 +28752,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="791" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A791" s="2">
         <v>43664</v>
       </c>
@@ -28778,7 +28787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A792" s="2">
         <v>43664</v>
       </c>
@@ -28814,7 +28823,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A793" s="2">
         <v>43664</v>
       </c>
@@ -28850,7 +28859,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A794" s="2">
         <v>43664</v>
       </c>
@@ -28886,7 +28895,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A795" s="2">
         <v>43664</v>
       </c>
@@ -28922,7 +28931,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A796" s="2">
         <v>43664</v>
       </c>
@@ -28958,7 +28967,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="797" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A797" s="2">
         <v>43664</v>
       </c>
@@ -28993,7 +29002,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="798" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A798" s="2">
         <v>43664</v>
       </c>
@@ -29029,7 +29038,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A799" s="2">
         <v>43664</v>
       </c>
@@ -29064,7 +29073,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="800" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A800" s="2">
         <v>43664</v>
       </c>
@@ -29100,7 +29109,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="801" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A801" s="2">
         <v>43664</v>
       </c>
@@ -29136,7 +29145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="802" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A802" s="2">
         <v>43664</v>
       </c>
@@ -29172,7 +29181,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="803" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A803" s="2">
         <v>43664</v>
       </c>
@@ -29208,7 +29217,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="804" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A804" s="2">
         <v>43664</v>
       </c>
@@ -29244,7 +29253,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="805" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A805" s="2">
         <v>43664</v>
       </c>
@@ -29279,7 +29288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="806" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A806" s="2">
         <v>43664</v>
       </c>
@@ -29315,7 +29324,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="807" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A807" s="2">
         <v>43664</v>
       </c>
@@ -29351,7 +29360,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="808" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A808" s="2">
         <v>43664</v>
       </c>
@@ -29387,7 +29396,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A809" s="2">
         <v>43664</v>
       </c>
@@ -29422,7 +29431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A810" s="2">
         <v>43664</v>
       </c>
@@ -29457,7 +29466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="811" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A811" s="2">
         <v>43664</v>
       </c>
@@ -29492,7 +29501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A812" s="2">
         <v>43664</v>
       </c>
@@ -29528,7 +29537,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="813" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A813" s="2">
         <v>43664</v>
       </c>
@@ -29563,7 +29572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="814" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A814" s="2">
         <v>43664</v>
       </c>
@@ -29598,7 +29607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A815" s="2">
         <v>43664</v>
       </c>
@@ -29634,7 +29643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="816" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A816" s="2">
         <v>43664</v>
       </c>
@@ -29669,7 +29678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="817" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A817" s="2">
         <v>43664</v>
       </c>
@@ -29705,7 +29714,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="818" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A818" s="2">
         <v>43664</v>
       </c>
@@ -29741,7 +29750,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="819" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A819" s="2">
         <v>43664</v>
       </c>
@@ -29777,7 +29786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="820" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A820" s="2">
         <v>43664</v>
       </c>
@@ -29812,7 +29821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="821" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A821" s="2">
         <v>43664</v>
       </c>
@@ -29848,7 +29857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="822" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A822" s="2">
         <v>43664</v>
       </c>
@@ -29883,7 +29892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="823" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A823" s="2">
         <v>43664</v>
       </c>
@@ -29918,7 +29927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="824" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A824" s="2">
         <v>43664</v>
       </c>
@@ -29954,7 +29963,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="825" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A825" s="2">
         <v>43664</v>
       </c>
@@ -29990,7 +29999,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="826" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A826" s="2">
         <v>43664</v>
       </c>
@@ -30026,7 +30035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="827" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A827" s="2">
         <v>43664</v>
       </c>
@@ -30062,7 +30071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="828" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A828" s="2">
         <v>43664</v>
       </c>
@@ -30098,7 +30107,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="829" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A829" s="2">
         <v>43664</v>
       </c>
@@ -30134,7 +30143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="830" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A830" s="2">
         <v>43664</v>
       </c>
@@ -30170,7 +30179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="831" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A831" s="2">
         <v>43664</v>
       </c>
@@ -30206,7 +30215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="832" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A832" s="2">
         <v>43664</v>
       </c>
@@ -30242,7 +30251,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="833" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A833" s="2">
         <v>43664</v>
       </c>
@@ -30278,7 +30287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="834" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A834" s="2">
         <v>43670</v>
       </c>
@@ -30314,7 +30323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="835" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A835" s="2">
         <v>43670</v>
       </c>
@@ -30350,7 +30359,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A836" s="2">
         <v>43670</v>
       </c>
@@ -30385,7 +30394,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="837" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A837" s="2">
         <v>43670</v>
       </c>
@@ -30421,7 +30430,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="838" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A838" s="2">
         <v>43670</v>
       </c>
@@ -30457,7 +30466,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="839" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A839" s="2">
         <v>43670</v>
       </c>
@@ -30493,7 +30502,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="840" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A840" s="2">
         <v>43670</v>
       </c>
@@ -30529,7 +30538,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="841" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A841" s="2">
         <v>43670</v>
       </c>
@@ -30565,7 +30574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="842" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A842" s="2">
         <v>43670</v>
       </c>
@@ -30601,7 +30610,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="843" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A843" s="2">
         <v>43670</v>
       </c>
@@ -30636,7 +30645,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="844" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A844" s="2">
         <v>43670</v>
       </c>
@@ -30672,7 +30681,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="845" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A845" s="2">
         <v>43670</v>
       </c>
@@ -30707,7 +30716,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="846" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A846" s="2">
         <v>43670</v>
       </c>
@@ -30742,7 +30751,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="847" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A847" s="2">
         <v>43670</v>
       </c>
@@ -30777,7 +30786,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="848" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A848" s="2">
         <v>43670</v>
       </c>
@@ -30813,7 +30822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="849" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A849" s="2">
         <v>43670</v>
       </c>
@@ -30849,7 +30858,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="850" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A850" s="2">
         <v>43670</v>
       </c>
@@ -30885,7 +30894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="851" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A851" s="2">
         <v>43670</v>
       </c>
@@ -30921,7 +30930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="852" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A852" s="2">
         <v>43670</v>
       </c>
@@ -30957,7 +30966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="853" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A853" s="2">
         <v>43670</v>
       </c>
@@ -30992,7 +31001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="854" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A854" s="2">
         <v>43670</v>
       </c>
@@ -31027,7 +31036,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="855" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A855" s="2">
         <v>43670</v>
       </c>
@@ -31063,7 +31072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="856" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A856" s="2">
         <v>43670</v>
       </c>
@@ -31099,7 +31108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="857" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A857" s="2">
         <v>43670</v>
       </c>
@@ -31134,7 +31143,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="858" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A858" s="2">
         <v>43670</v>
       </c>
@@ -31169,7 +31178,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="859" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A859" s="2">
         <v>43670</v>
       </c>
@@ -31204,7 +31213,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="860" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A860" s="2">
         <v>43670</v>
       </c>
@@ -31239,7 +31248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="861" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A861" s="2">
         <v>43670</v>
       </c>
@@ -31274,7 +31283,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="862" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A862" s="2">
         <v>43670</v>
       </c>
@@ -31310,7 +31319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="863" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A863" s="2">
         <v>43670</v>
       </c>
@@ -31346,7 +31355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="864" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A864" s="2">
         <v>43670</v>
       </c>
@@ -31381,7 +31390,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="865" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A865" s="2">
         <v>43670</v>
       </c>
@@ -31416,7 +31425,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="866" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A866" s="2">
         <v>43670</v>
       </c>
@@ -31451,7 +31460,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="867" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A867" s="2">
         <v>43670</v>
       </c>
@@ -31486,7 +31495,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="868" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A868" s="2">
         <v>43670</v>
       </c>
@@ -31522,7 +31531,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="869" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A869" s="2">
         <v>43670</v>
       </c>
@@ -31558,7 +31567,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="870" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A870" s="2">
         <v>43670</v>
       </c>
@@ -31593,7 +31602,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="871" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A871" s="2">
         <v>43670</v>
       </c>
@@ -31629,7 +31638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="872" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A872" s="2">
         <v>43670</v>
       </c>
@@ -31665,7 +31674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="873" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A873" s="2">
         <v>43670</v>
       </c>
@@ -31701,7 +31710,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="874" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A874" s="2">
         <v>43670</v>
       </c>
@@ -31737,7 +31746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="875" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A875" s="2">
         <v>43670</v>
       </c>
@@ -31773,7 +31782,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="876" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A876" s="2">
         <v>43670</v>
       </c>
@@ -31809,7 +31818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="877" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A877" s="2">
         <v>43670</v>
       </c>
@@ -31845,7 +31854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="878" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A878" s="2">
         <v>43670</v>
       </c>
@@ -31881,7 +31890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="879" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A879" s="2">
         <v>43670</v>
       </c>
@@ -31916,7 +31925,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="880" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A880" s="2">
         <v>43670</v>
       </c>
@@ -31952,7 +31961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="881" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A881" s="2">
         <v>43670</v>
       </c>
@@ -31987,7 +31996,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="882" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A882" s="2">
         <v>43670</v>
       </c>
@@ -32022,7 +32031,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="883" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A883" s="2">
         <v>43670</v>
       </c>
@@ -32058,7 +32067,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="884" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A884" s="2">
         <v>43670</v>
       </c>
@@ -32093,7 +32102,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="885" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A885" s="2">
         <v>43670</v>
       </c>
@@ -32129,7 +32138,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="886" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A886" s="2">
         <v>43670</v>
       </c>
@@ -32164,7 +32173,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="887" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A887" s="2">
         <v>43670</v>
       </c>
@@ -32200,7 +32209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="888" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A888" s="2">
         <v>43670</v>
       </c>
@@ -32236,7 +32245,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="889" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A889" s="2">
         <v>43670</v>
       </c>
@@ -32272,7 +32281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="890" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A890" s="2">
         <v>43670</v>
       </c>
@@ -32307,7 +32316,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="891" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A891" s="2">
         <v>43670</v>
       </c>
@@ -32343,7 +32352,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="892" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A892" s="2">
         <v>43670</v>
       </c>
@@ -32379,7 +32388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="893" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A893" s="2">
         <v>43670</v>
       </c>
@@ -32415,7 +32424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="894" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A894" s="2">
         <v>43670</v>
       </c>
@@ -32451,7 +32460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="895" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A895" s="2">
         <v>43670</v>
       </c>
@@ -32487,7 +32496,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="896" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A896" s="2">
         <v>43670</v>
       </c>
@@ -32523,7 +32532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="897" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A897" s="2">
         <v>43670</v>
       </c>
@@ -32559,7 +32568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="898" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A898" s="2">
         <v>43670</v>
       </c>
@@ -32595,7 +32604,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="899" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A899" s="2">
         <v>43670</v>
       </c>
@@ -32631,7 +32640,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="900" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A900" s="2">
         <v>43670</v>
       </c>
@@ -32667,7 +32676,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="901" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A901" s="2">
         <v>43670</v>
       </c>
@@ -32703,7 +32712,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="902" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A902" s="2">
         <v>43670</v>
       </c>
@@ -32738,7 +32747,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="903" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A903" s="2">
         <v>43670</v>
       </c>
@@ -32773,7 +32782,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="904" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A904" s="2">
         <v>43670</v>
       </c>
@@ -32808,7 +32817,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="905" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A905" s="2">
         <v>43670</v>
       </c>
@@ -32844,7 +32853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="906" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A906" s="2">
         <v>43670</v>
       </c>
@@ -32879,7 +32888,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="907" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A907" s="2">
         <v>43670</v>
       </c>
@@ -32914,7 +32923,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="908" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A908" s="2">
         <v>43670</v>
       </c>
@@ -32950,7 +32959,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="909" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A909" s="2">
         <v>43670</v>
       </c>
@@ -32985,7 +32994,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="910" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A910" s="2">
         <v>43670</v>
       </c>
@@ -33020,7 +33029,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="911" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A911" s="2">
         <v>43670</v>
       </c>
@@ -33056,7 +33065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="912" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A912" s="2">
         <v>43670</v>
       </c>
@@ -33092,7 +33101,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="913" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A913" s="2">
         <v>43670</v>
       </c>
@@ -33127,7 +33136,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="914" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A914" s="2">
         <v>43670</v>
       </c>
@@ -33163,7 +33172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="915" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A915" s="2">
         <v>43670</v>
       </c>
@@ -33198,7 +33207,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="916" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A916" s="2">
         <v>43670</v>
       </c>
@@ -33233,7 +33242,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="917" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A917" s="2">
         <v>43670</v>
       </c>
@@ -33269,7 +33278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="918" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A918" s="2">
         <v>43670</v>
       </c>
@@ -33305,7 +33314,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="919" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A919" s="2">
         <v>43670</v>
       </c>
@@ -33341,7 +33350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="920" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A920" s="2">
         <v>43670</v>
       </c>
@@ -33377,7 +33386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="921" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A921" s="2">
         <v>43670</v>
       </c>
@@ -33413,7 +33422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="922" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A922" s="2">
         <v>43670</v>
       </c>
@@ -33449,7 +33458,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="923" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A923" s="2">
         <v>43670</v>
       </c>
@@ -33485,7 +33494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="924" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A924" s="2">
         <v>43670</v>
       </c>
@@ -33520,7 +33529,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="925" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A925" s="2">
         <v>43670</v>
       </c>
@@ -33556,7 +33565,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="926" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A926" s="2">
         <v>43670</v>
       </c>
@@ -33603,6 +33612,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C27C2BB6D3449146994A382E4B983F24" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b60a67dc91f4c73ad046e540fc80b11d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ea4a38b-8811-4417-ad95-e83ecafd41d9" xmlns:ns4="8d30a389-4d56-4429-bc7f-f48221d5bec2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d8cae1980dc7b1032743af582dad13f" ns3:_="" ns4:_="">
     <xsd:import namespace="9ea4a38b-8811-4417-ad95-e83ecafd41d9"/>
@@ -33819,15 +33837,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73A8DEDC-F3C2-499B-ADC1-7044D3D2449D}">
   <ds:schemaRefs>
@@ -33846,6 +33855,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14453F83-1B71-4A85-9DAD-3D3876A0C6C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{106DE229-A76B-4DD8-AA89-DD19D155536B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33862,12 +33879,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14453F83-1B71-4A85-9DAD-3D3876A0C6C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>